--- a/Process Results/Unified_IBNP_NFL.xlsx
+++ b/Process Results/Unified_IBNP_NFL.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01450812062620617</v>
+        <v>0.01250206443985622</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0110697858319779</v>
+        <v>0.01184241483632527</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.02244242703113683</v>
+        <v>0.02299551500608744</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.01255785249032501</v>
+        <v>0.01216330254819652</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6658593383690061</v>
+        <v>0.7147314887310769</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4849079987897293</v>
+        <v>0.5836819213502313</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4698987106776668</v>
+        <v>0.5880383740805195</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.561156906036568</v>
+        <v>0.6425932532011389</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6834468421600832</v>
+        <v>0.7316825089985742</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6457187561236263</v>
+        <v>0.7243218409101581</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7960091829507376</v>
+        <v>0.8294747053994288</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6640473472471428</v>
+        <v>0.7279835694348458</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7338591696502785</v>
+        <v>0.7783361172717097</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6972173596829663</v>
+        <v>0.7688114741238555</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8453340415099349</v>
+        <v>0.8764434196507194</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.7150691694749396</v>
+        <v>0.7735444776069946</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7472806070067644</v>
+        <v>0.7938906966236489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7178747999980741</v>
+        <v>0.7874237650106174</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8722513647187079</v>
+        <v>0.9022276454206635</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7322826148443499</v>
+        <v>0.7906440072599273</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8043703239195842</v>
+        <v>0.8314321218271079</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8530378093216445</v>
+        <v>0.8889886532320594</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.921840909265584</v>
+        <v>0.9503220365250932</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8279895400993985</v>
+        <v>0.8592476130864376</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8381618152347914</v>
+        <v>0.8464128438605215</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8729986666686603</v>
+        <v>0.9002524085307949</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9290585788149666</v>
+        <v>0.9553882329183381</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.8552256259899325</v>
+        <v>0.8725028453547341</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9966263659435513</v>
+        <v>0.9991432543913475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.971439842658509</v>
+        <v>0.9975905103614602</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.977396576884666</v>
+        <v>0.9898012519088741</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9838719407811204</v>
+        <v>0.9983662786369206</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9974186954122345</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9965440341620072</v>
+        <v>0.9979416733823971</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9845150639205076</v>
+        <v>0.9968956807725275</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9969811729499589</v>
+        <v>0.9989697764228931</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9974186954122345</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9965599033741525</v>
+        <v>0.9979416733823971</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.984719871015566</v>
+        <v>0.9969555295950229</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9969891144554603</v>
+        <v>0.9989697764228931</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9974186954122345</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9969743879025708</v>
+        <v>0.9983802196665483</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9849276072827138</v>
+        <v>0.9971828286823562</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9971964921663657</v>
+        <v>0.9991894533795366</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4148,17 +4148,17 @@
         <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9980850336514343</v>
+        <v>0.9996959164208364</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9855911698083667</v>
+        <v>0.9978868232413398</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9990415991730511</v>
+        <v>0.9998479350901972</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4186,17 +4186,17 @@
         <v>1</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9992796016193143</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9869560747521632</v>
+        <v>0.99933314554623</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9996396710194502</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4224,17 +4224,17 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9992796016193143</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9870563144407916</v>
+        <v>0.9994295357967042</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9996396710194502</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4262,17 +4262,17 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9992796016193143</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9870563144407916</v>
+        <v>0.9994295357967042</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9996396710194502</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4300,17 +4300,17 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9992796016193143</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.999380129458798</v>
+        <v>0.9994295357967042</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9996396710194502</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4338,17 +4338,17 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9992796016193143</v>
+        <v>1</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.999380129458798</v>
+        <v>0.9994295357967042</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9996396710194502</v>
+        <v>1</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4833,19 +4833,19 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>21.72518625330449</v>
+        <v>7.550508832988237</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.56973152209384</v>
+        <v>1.519060927675249</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>0.9796672160505845</v>
+        <v>1.592746184308067</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.006712936168024</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.002312681352613</v>
+        <v>1.019126981148497</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>1</v>
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1</v>
+        <v>1.001851415122058</v>
       </c>
       <c r="L38" s="4" t="n">
         <v>1</v>
@@ -4875,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>1.144881901065846</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.004433464405592</v>
       </c>
       <c r="S38" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -4908,19 +4908,19 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>7.550508832988237</v>
+        <v>21.90397039318872</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.519060927675249</v>
+        <v>1.086499668432099</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.592746184308067</v>
+        <v>1.156134156470339</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.006712936168024</v>
+        <v>1.510580085368414</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.019126981148497</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>1</v>
@@ -4932,10 +4932,10 @@
         <v>1</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1</v>
+        <v>1.0839248481517</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.001851415122058</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>1</v>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1</v>
+        <v>1.000830029202973</v>
       </c>
       <c r="O39" s="4" t="n">
         <v>1</v>
@@ -4956,22 +4956,22 @@
         <v>1</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1.004433464405592</v>
+        <v>1</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="W39" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X39" s="4" t="n">
         <v/>
@@ -4983,31 +4983,31 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>21.90397039318872</v>
+        <v>5.795687829978828</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.086499668432099</v>
+        <v>1.173670374489317</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.156134156470339</v>
+        <v>1.124545184122863</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.510580085368414</v>
+        <v>1.106610375846333</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>1.01023740586953</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v>1.008574517761725</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.0839248481517</v>
+        <v>1.003707029684203</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>1</v>
@@ -5016,10 +5016,10 @@
         <v>1</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>1.00337911050295</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1.000830029202973</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
         <v>1</v>
@@ -5058,40 +5058,40 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>5.795687829978828</v>
+        <v>24.76450668896321</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.173670374489317</v>
+        <v>1.312048105313091</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.124545184122863</v>
+        <v>1.019394915686027</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.106610375846333</v>
+        <v>1.201946766832263</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>1.169591552135488</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1.01023740586953</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1</v>
+        <v>1.008493537369769</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.008574517761725</v>
+        <v>1.006980648975115</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.003707029684203</v>
+        <v>1.00075856099741</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>1.000578649000351</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.00337911050295</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
         <v>1</v>
@@ -5133,40 +5133,40 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>24.76450668896321</v>
+        <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.312048105313091</v>
+        <v>1.27863887822082</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.019394915686027</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.201946766832263</v>
+        <v>1</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.169591552135488</v>
+        <v>1.023382132089099</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1</v>
+        <v>1.043600997439189</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.008493537369769</v>
+        <v>1.500575349288542</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.006980648975115</v>
+        <v>1</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.00075856099741</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.000578649000351</v>
+        <v>1</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>1.013990506084633</v>
       </c>
       <c r="N42" s="4" t="n">
         <v>1</v>
@@ -5208,10 +5208,10 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v/>
+        <v>22.70356801529149</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.27863887822082</v>
+        <v>1.000471145953245</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>1</v>
@@ -5220,13 +5220,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.023382132089099</v>
+        <v>1.046009228601544</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.043600997439189</v>
+        <v>1.018194063825683</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.500575349288542</v>
+        <v>1.000923330635432</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>1</v>
@@ -5241,25 +5241,25 @@
         <v>1</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.013990506084633</v>
+        <v>1.005790414619595</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T43" t="n">
         <v/>
@@ -5283,28 +5283,28 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>22.70356801529149</v>
+        <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.000471145953245</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1</v>
+        <v>1.43332598649129</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.046009228601544</v>
+        <v>1.024351516612574</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.018194063825683</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.000923330635432</v>
+        <v>1.026689232542317</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1</v>
+        <v>0.9740045656500862</v>
       </c>
       <c r="J44" s="4" t="n">
         <v>1</v>
@@ -5316,22 +5316,22 @@
         <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.005790414619595</v>
+        <v>1.001549103781237</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5361,49 +5361,49 @@
         <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D45" s="4" t="n">
-        <v>1</v>
+        <v>1.196960966925241</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.43332598649129</v>
+        <v>1.038970574778683</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.024351516612574</v>
+        <v>1.000575942164518</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1</v>
+        <v>1.005627007502143</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.026689232542317</v>
+        <v>1.001688523398754</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>0.9740045656500862</v>
+        <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>1.000142988631874</v>
       </c>
       <c r="L45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.001549103781237</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R45" s="4" t="n">
         <v/>
@@ -5439,28 +5439,28 @@
         <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v>1.196960966925241</v>
+        <v>1.040664078978288</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.038970574778683</v>
+        <v>1.101098010196586</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.000575942164518</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.005627007502143</v>
+        <v>1.001167677616218</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.001688523398754</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1</v>
+        <v>1.000061203195597</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.000142988631874</v>
+        <v>1.001688907402271</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>1</v>
@@ -5511,34 +5511,34 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v/>
+        <v>6.48362108644345</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.040664078978288</v>
+        <v>1.039308000358476</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.101098010196586</v>
+        <v>1.003847385429832</v>
       </c>
       <c r="F47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.001167677616218</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1</v>
+        <v>1.079101882491129</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.000061203195597</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.001688907402271</v>
+        <v>1</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>1.005233628309086</v>
       </c>
       <c r="M47" s="4" t="n">
         <v>1</v>
@@ -5583,28 +5583,28 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v/>
+        <v>8.675688093466942</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>6.483621086443449</v>
+        <v>4.612350610671045</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.039308000358476</v>
+        <v>1.019066781851783</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.003847385429832</v>
+        <v>1.00088689202559</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9961955866231743</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.00102186434549</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.089350077166342</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>1.079101882491129</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="n">
         <v>1</v>
@@ -5613,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1.005233628309086</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>1</v>
@@ -5658,40 +5658,40 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>8.675688093466942</v>
+        <v>13.19602232078981</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>4.612350610671045</v>
+        <v>1.258964294620881</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.019066781851783</v>
+        <v>1.081654975217573</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.00088689202559</v>
+        <v>1.00506801813817</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>0.9961955866231743</v>
+        <v>1.008884716544665</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.00102186434549</v>
+        <v>1.016431159918178</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.089350077166342</v>
+        <v>1.002197895582578</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M49" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N49" t="n">
         <v/>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>13.19602232078981</v>
+        <v>12.16980172852059</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.258964294620881</v>
+        <v>2.153861761932612</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.081654975217573</v>
+        <v>1.12241420393778</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.00506801813817</v>
+        <v>1.017704489070465</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.008884716544665</v>
+        <v>1.066507869899846</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.016431159918178</v>
+        <v>1.001469230314361</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1.002197895582578</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,25 +5808,25 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>12.16980172852059</v>
+        <v>2.3309067110515</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>2.153861761932612</v>
+        <v>1.1266400219074</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.12241420393778</v>
+        <v>1.09154793074909</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.017704489070465</v>
+        <v>1.098884930209484</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.066507869899846</v>
+        <v>1.89027286858292</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.001469230314361</v>
+        <v>1.006014074454025</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1</v>
+        <v>1.07698854822828</v>
       </c>
       <c r="I51" s="4" t="n">
         <v>1</v>
@@ -5883,28 +5883,28 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>2.3309067110515</v>
+        <v>4.419257807219143</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.1266400219074</v>
+        <v>1.204398234893734</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.09154793074909</v>
+        <v>1.123631999542809</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.098884930209484</v>
+        <v>1.119101910954008</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.89027286858292</v>
+        <v>1.422758787854304</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.006014074454025</v>
+        <v>1.001233373854249</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.07698854822828</v>
+        <v>1.433896382424361</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1</v>
+        <v>1.002012385814411</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>1</v>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>4.419257807219143</v>
+        <v>11.88154069767442</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.204398234893734</v>
+        <v>3.79966664627806</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.123631999542809</v>
+        <v>1.157684831557893</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.119101910954008</v>
+        <v>1.012111310030765</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.422758787854304</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.001233373854249</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.433896382424361</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.002012385814411</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>11.88154069767442</v>
+        <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>3.79966664627806</v>
+        <v>1.429800278943978</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.157684831557893</v>
+        <v>1.087551682305464</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.012111310030765</v>
+        <v>1.018300692280199</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.120721107414959</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v/>
+        <v>8.999136413458663</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.429800278943978</v>
+        <v>7.17852858782669</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.087551682305464</v>
+        <v>1.036524212451971</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.018300692280199</v>
+        <v>1.036172733071887</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>1.103404249818923</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.120721107414959</v>
+        <v>1.000362273410997</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>8.999136413458665</v>
+        <v>76.82712564253814</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>7.17852858782669</v>
+        <v>1.020146812437103</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.036524212451971</v>
+        <v>1.107245594578075</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.036172733071887</v>
+        <v>1.000781688485971</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.103404249818923</v>
+        <v>1.000681138763102</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>76.82712564253814</v>
+        <v>46.04648537926133</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.020146812437103</v>
+        <v>1.025271425082683</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.107245594578075</v>
+        <v>1.078251187089776</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.000781688485971</v>
+        <v>1.022823998663064</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>46.04648537926133</v>
+        <v>52.68638109305761</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.025271425082683</v>
+        <v>1.034230591095605</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.078251187089776</v>
+        <v>1.0021664619118</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>52.68638109305761</v>
+        <v>40.58305510117194</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.034230591095605</v>
+        <v>1.011472033570758</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>40.58305510117194</v>
+        <v>130.5060023022529</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.02794246631497412</v>
+        <v>0.02709361133590959</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.02244242703113683</v>
+        <v>0.02299551500608744</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.0110697858319779</v>
+        <v>0.01184241483632527</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.01450812062620617</v>
+        <v>0.01250206443985622</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.01450809560081471</v>
+        <v>0.01160664759098034</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.0102129826972433</v>
+        <v>0.009103856448200475</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.005231213885635214</v>
+        <v>0.005201383205284218</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.01518592551441123</v>
+        <v>0.009801225148412342</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.01255785249032501</v>
+        <v>0.01216330254819652</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>18.68618201313427</v>
+        <v>20.36630518202142</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>20.93796317242003</v>
+        <v>25.57187233792556</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>43.80464140407746</v>
+        <v>49.28740712239305</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>45.89563014566182</v>
+        <v>57.1690773287437</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>22.48581347070147</v>
+        <v>28.88468500299256</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>25.25594554438273</v>
+        <v>36.33142865427237</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>45.02843672589754</v>
+        <v>59.2746976552901</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>46.43864052449696</v>
+        <v>74.59181283216084</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>44.85013577486964</v>
+        <v>53.22824222556837</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.5221380114574796</v>
+        <v>0.5517967569502098</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.4698987106776668</v>
+        <v>0.5880383740805195</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.4849079987897293</v>
+        <v>0.5836819213502313</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.6658593383690061</v>
+        <v>0.7147314887310769</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.3262263314950241</v>
+        <v>0.3352543596062096</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.2579385348472998</v>
+        <v>0.3307561110265331</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.2355533834489618</v>
+        <v>0.3083104168825258</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.7052137359955296</v>
+        <v>0.7310911517962413</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.561156906036568</v>
+        <v>0.6425932532011389</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.448964504824416</v>
+        <v>1.394012555467788</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.694001632400244</v>
+        <v>1.410579210406853</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.331631480064797</v>
+        <v>1.240953016387049</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.026413241923072</v>
+        <v>1.023716627201625</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>2.113380048715546</v>
+        <v>2.085467074289391</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>2.693956696011103</v>
+        <v>2.237944274938379</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>2.581274056944019</v>
+        <v>2.116574954826136</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.026549609538464</v>
+        <v>1.023658016583015</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.179022360993935</v>
+        <v>1.132334821794337</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.7565594452214922</v>
+        <v>0.7692116072549999</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.7960091829507376</v>
+        <v>0.8294747053994288</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.6457187561236263</v>
+        <v>0.7243218409101581</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.6834468421600832</v>
+        <v>0.7316825089985742</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.6894402203472477</v>
+        <v>0.6991619284707256</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.6948752431111764</v>
+        <v>0.7402137450727124</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.6080278377221918</v>
+        <v>0.6525621066855591</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.7239368853273721</v>
+        <v>0.7483873183891325</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.6640473472471428</v>
+        <v>0.7279835694348458</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.079273332235285</v>
+        <v>1.078046358119073</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.061965187859208</v>
+        <v>1.05662464924554</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.079753922386421</v>
+        <v>1.061422465402663</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.073761885168514</v>
+        <v>1.063762093120127</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>1.097856862008671</v>
+        <v>1.098928254668729</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.082128789884915</v>
+        <v>1.078920655129374</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.098481584587665</v>
+        <v>1.07823732831583</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.074006998039941</v>
+        <v>1.06255441452655</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.076757903777467</v>
+        <v>1.062592279261395</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8165344334782786</v>
+        <v>0.8292457718241717</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8453340415099349</v>
+        <v>0.8764434196507194</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.6972173596829663</v>
+        <v>0.7688114741238555</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.7338591696502785</v>
+        <v>0.7783361172717097</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.7569066768529964</v>
+        <v>0.7683287977851575</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.7519445059488835</v>
+        <v>0.7986318987696185</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.6679073826544848</v>
+        <v>0.7036168224727868</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.7775132809808357</v>
+        <v>0.7952022489300596</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.7150691694749396</v>
+        <v>0.7735444776069946</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.086137042926043</v>
+        <v>1.083679392450987</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.031842232640594</v>
+        <v>1.029419156093635</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.029628407882014</v>
+        <v>1.024209174177548</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.018288846023252</v>
+        <v>1.019984398779364</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.085605239268898</v>
+        <v>1.086746439202051</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.037744052889303</v>
+        <v>1.036398504879669</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.047558877505386</v>
+        <v>1.034882055580982</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.018418371279352</v>
+        <v>1.019926140073641</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.023958626952633</v>
+        <v>1.022096786478456</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.8868682950253893</v>
+        <v>0.8986365542029683</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.8722513647187079</v>
+        <v>0.9022276454206635</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.7178747999980741</v>
+        <v>0.7874237650106174</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.7472806070067644</v>
+        <v>0.7938906966236489</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.8217018540292238</v>
+        <v>0.8349785851294128</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.7803259391512394</v>
+        <v>0.8277009058340435</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.6996723080510923</v>
+        <v>0.7281604235819967</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.7918338092645681</v>
+        <v>0.8110475603291141</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.7322826148443499</v>
+        <v>0.7906440072599273</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.048712012802105</v>
+        <v>1.04667403321188</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.056852355356152</v>
+        <v>1.053306270705112</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.188282147978914</v>
+        <v>1.128983773076842</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.076396625815693</v>
+        <v>1.047287901676036</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.093335479654114</v>
+        <v>1.093249608991508</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.126079294841744</v>
+        <v>1.124106763354288</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.247157296025999</v>
+        <v>1.236186174169875</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.034468083272974</v>
+        <v>1.034695129527342</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.132339386897304</v>
+        <v>1.088135837376439</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9300694347664468</v>
+        <v>0.9405795465792474</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.921840909265584</v>
+        <v>0.9503220365250932</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8530378093216445</v>
+        <v>0.8889886532320594</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.8043703239195842</v>
+        <v>0.8314321218271079</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.898395790707716</v>
+        <v>0.9128400117090132</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8787088833061489</v>
+        <v>0.9304241862825186</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.8726014238132701</v>
+        <v>0.9001418482097441</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.8191268029406559</v>
+        <v>0.8391869604875674</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8279895400993985</v>
+        <v>0.8592476130864376</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.006636461795257</v>
+        <v>1.006319453015082</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.007829625998192</v>
+        <v>1.00533103116473</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.023399733433726</v>
+        <v>1.012670302661102</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.042009868229034</v>
+        <v>1.018017973614602</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.012539886808557</v>
+        <v>1.012560013109168</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.014323296603775</v>
+        <v>1.012837314069218</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.024311490992629</v>
+        <v>1.021633343241432</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.040651493756402</v>
+        <v>1.040361126941985</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.03270480083138</v>
+        <v>1.015344138137852</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9362418050372104</v>
+        <v>0.9465234948308019</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9290585788149666</v>
+        <v>0.9553882329183381</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.8729986666686603</v>
+        <v>0.9002524085307949</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.8381618152347914</v>
+        <v>0.8464128438605215</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9096615722324747</v>
+        <v>0.9243052942226513</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8912948912701152</v>
+        <v>0.9423683337794241</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.8938156654684613</v>
+        <v>0.9196149257780419</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.8524255310560999</v>
+        <v>0.8730574919278646</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.8552256259899325</v>
+        <v>0.8725028453547341</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.037211225555851</v>
+        <v>1.038345822540143</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.052029009980571</v>
+        <v>1.036019931798215</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.11276211493598</v>
+        <v>1.108123122924514</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.189062001905169</v>
+        <v>1.180444344197586</v>
       </c>
       <c r="R8" s="22" t="n">
         <v>1.067106051566846</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.09435911160555</v>
+        <v>1.052644499164838</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.10040548390026</v>
+        <v>1.085513804372536</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.170294976884213</v>
+        <v>1.144632127474787</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.150912058420574</v>
+        <v>1.14428373356105</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9710805100192677</v>
+        <v>0.9828187167936601</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.977396576884666</v>
+        <v>0.9898012519088741</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.971439842658509</v>
+        <v>0.9975905103614602</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9966263659435513</v>
+        <v>0.9991432543913475</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.970705368607085</v>
+        <v>0.9863317729602649</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9753966853889289</v>
+        <v>0.9919788427400452</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9835596598774551</v>
+        <v>0.9982546966390898</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9975893171628116</v>
+        <v>0.9993296543931931</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9838719407811204</v>
+        <v>0.9983662786369206</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.005833843173664</v>
+        <v>1.006069502848753</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.007283110258613</v>
+        <v>1.007167528683129</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.025842250236305</v>
+        <v>1.000352011188248</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.000795011546713</v>
+        <v>1.000857480251092</v>
       </c>
       <c r="R9" s="22" t="n">
         <v>1.004417125043279</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.005174956910895</v>
+        <v>1.004593236162969</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.01351904471759</v>
+        <v>1.000335397635735</v>
       </c>
       <c r="U9" s="22" t="n">
         <v>1.00067079527147</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.013318630891509</v>
+        <v>1.00060474571967</v>
       </c>
     </row>
     <row r="10">
@@ -7215,44 +7215,44 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9767456414237219</v>
+        <v>0.9887839377950474</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9845150639205076</v>
+        <v>0.9968956807725275</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9965440341620072</v>
+        <v>0.9979416733823971</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9974186954122345</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9749930956004049</v>
+        <v>0.9906885237355895</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9804443212068464</v>
+        <v>0.9965352358334189</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.996856446901756</v>
+        <v>0.9985895089042039</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9982584953596336</v>
+        <v>1</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9969811729499589</v>
+        <v>0.9989697764228931</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.008108794713236</v>
+        <v>1.008230741067389</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.000208028401559</v>
+        <v>1.000060035190893</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.000015924245795</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="22" t="n">
         <v>1</v>
@@ -7261,16 +7261,16 @@
         <v>1.005896776135261</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.000377232823101</v>
+        <v>1.000068313682751</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.000010200532599</v>
+        <v>1</v>
       </c>
       <c r="U10" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.000007962122897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -7279,44 +7279,44 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9846658713170753</v>
+        <v>0.9969223623586321</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.984719871015566</v>
+        <v>0.9969555295950229</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9965599033741525</v>
+        <v>0.9979416733823971</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9974186954122345</v>
+        <v>1</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9807424116185852</v>
+        <v>0.9965303921798301</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9808141769860285</v>
+        <v>0.9966033128253694</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9968666153684397</v>
+        <v>0.9985895089042039</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9982584953596336</v>
+        <v>1</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9969891144554603</v>
+        <v>0.9989697764228931</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.000304393879144</v>
+        <v>1.000309311486424</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.000210959759483</v>
+        <v>1.000227993205901</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.000415915317298</v>
+        <v>1.000439450817466</v>
       </c>
       <c r="Q11" s="22" t="n">
         <v>1</v>
@@ -7328,13 +7328,13 @@
         <v>1.000152658002845</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.000305316005691</v>
+        <v>1.000281484567045</v>
       </c>
       <c r="U11" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.000207957658649</v>
+        <v>1.000219725408733</v>
       </c>
     </row>
     <row r="12">
@@ -7343,47 +7343,47 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9849655975813066</v>
+        <v>0.9972307218963823</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9849276072827138</v>
+        <v>0.9971828286823562</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9969743879025708</v>
+        <v>0.9983802196665483</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9974186954122345</v>
+        <v>1</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9810004387233049</v>
+        <v>0.996792573002045</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9809639061194496</v>
+        <v>0.9967554522967346</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9971709747016505</v>
+        <v>0.9988705964397736</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9982584953596336</v>
+        <v>1</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9971964921663657</v>
+        <v>0.9991894533795366</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.000635120890107</v>
+        <v>1.000657923317595</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.000673717053666</v>
+        <v>1.000705983435268</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.001114016330149</v>
+        <v>1.001317831351594</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.002587984965229</v>
+        <v>1</v>
       </c>
       <c r="R12" s="22" t="n">
         <v>1.000447098254572</v>
@@ -7395,10 +7395,10 @@
         <v>1.000872271384848</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.001744542769695</v>
+        <v>1</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.001851000647689</v>
+        <v>1.000658915675797</v>
       </c>
     </row>
     <row r="13">
@@ -7407,44 +7407,44 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9855911698083667</v>
+        <v>0.9978868232413398</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9855911698083667</v>
+        <v>0.9978868232413398</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9980850336514343</v>
+        <v>0.9996959164208364</v>
       </c>
       <c r="E13" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9814390423071925</v>
+        <v>0.9972382372216047</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9814390423071925</v>
+        <v>0.9972382372216047</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9980407784086834</v>
+        <v>0.9997418826782138</v>
       </c>
       <c r="I13" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9990415991730511</v>
+        <v>0.9998479350901972</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.001384859144042</v>
+        <v>1.001449385111823</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.001384859144042</v>
+        <v>1.001449385111823</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.00119685991434</v>
+        <v>1.000304176074113</v>
       </c>
       <c r="Q13" s="22" t="n">
         <v>1</v>
@@ -7456,13 +7456,13 @@
         <v>1.002059094582368</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.001223253066805</v>
+        <v>1.000258183963539</v>
       </c>
       <c r="U13" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.00059842995717</v>
+        <v>1.000152088037056</v>
       </c>
     </row>
     <row r="14">
@@ -7471,41 +7471,41 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9869560747521632</v>
+        <v>0.99933314554623</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9869560747521632</v>
+        <v>0.99933314554623</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9992796016193143</v>
+        <v>1</v>
       </c>
       <c r="E14" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9834599181221317</v>
+        <v>0.9992916450731979</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9834599181221317</v>
+        <v>0.9992916450731979</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9992616348516686</v>
+        <v>1</v>
       </c>
       <c r="I14" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9996396710194502</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000101564488221</v>
+        <v>1.000096454571635</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000101564488221</v>
+        <v>1.000096454571635</v>
       </c>
       <c r="P14" s="22" t="n">
         <v>1</v>
@@ -7535,31 +7535,31 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.9870563144407916</v>
+        <v>0.9994295357967042</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.9870563144407916</v>
+        <v>0.9994295357967042</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9992796016193143</v>
+        <v>1</v>
       </c>
       <c r="E15" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9835341272541314</v>
+        <v>0.9993670488229888</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9835341272541314</v>
+        <v>0.9993670488229888</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9992616348516686</v>
+        <v>1</v>
       </c>
       <c r="I15" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9996396710194502</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
@@ -7599,41 +7599,41 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9870563144407916</v>
+        <v>0.9994295357967042</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9870563144407916</v>
+        <v>0.9994295357967042</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.9992796016193143</v>
+        <v>1</v>
       </c>
       <c r="E16" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9835341272541314</v>
+        <v>0.9993670488229888</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9835341272541314</v>
+        <v>0.9993670488229888</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9992616348516686</v>
+        <v>1</v>
       </c>
       <c r="I16" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9996396710194502</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.012485422399621</v>
+        <v>1</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.012485422399621</v>
+        <v>1</v>
       </c>
       <c r="P16" s="22" t="n">
         <v>1</v>
@@ -7642,10 +7642,10 @@
         <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
-        <v>1.016097989007316</v>
+        <v>1</v>
       </c>
       <c r="S16" s="22" t="n">
-        <v>1.016097989007316</v>
+        <v>1</v>
       </c>
       <c r="T16" s="22" t="n">
         <v>1</v>
@@ -7663,13 +7663,13 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.999380129458798</v>
+        <v>0.9994295357967042</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.999380129458798</v>
+        <v>0.9994295357967042</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9992796016193143</v>
+        <v>1</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
@@ -7681,13 +7681,13 @@
         <v>0.9993670488229888</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9992616348516686</v>
+        <v>1</v>
       </c>
       <c r="I17" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9996396710194502</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
@@ -7727,13 +7727,13 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.999380129458798</v>
+        <v>0.9994295357967042</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.999380129458798</v>
+        <v>0.9994295357967042</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9992796016193143</v>
+        <v>1</v>
       </c>
       <c r="E18" s="34" t="n">
         <v>1</v>
@@ -7745,26 +7745,26 @@
         <v>0.9993670488229888</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9992616348516686</v>
+        <v>1</v>
       </c>
       <c r="I18" s="34" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9996396710194502</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.000620255019016</v>
+        <v>1.000570789818455</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.000620255019016</v>
+        <v>1.000570789818455</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1.00072091772865</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>1</v>
@@ -7776,13 +7776,13 @@
         <v>1.000633352057942</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>1.000738910734265</v>
+        <v>1</v>
       </c>
       <c r="U18" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1.000360458864325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>12762.01</v>
+        <v>12843.53</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>14638.6575</v>
+        <v>13948.4575</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>332.88</v>
+        <v>680.97</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>7231.88</v>
+        <v>5141.67</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>11352.11</v>
+        <v>7810.51</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>11121.29</v>
+        <v>12440.16</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>11121.29</v>
+        <v>12523.67</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>11147.01</v>
+        <v>12763.21</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>11147.01</v>
+        <v>12763.21</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>11147.01</v>
+        <v>12763.21</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>11147.01</v>
+        <v>12763.21</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>11147.01</v>
+        <v>12763.21</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>11147.01</v>
+        <v>12786.84</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>11147.01</v>
+        <v>12786.84</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>11147.01</v>
+        <v>12786.84</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>11147.01</v>
+        <v>12786.84</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>11147.01</v>
+        <v>12786.84</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>12762.01</v>
+        <v>12786.84</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>12762.01</v>
+        <v>12786.84</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>12762.01</v>
+        <v>12843.53</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>12762.01</v>
+        <v>12843.53</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>12762.01</v>
+        <v>12843.53</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>12762.01</v>
+        <v>12843.53</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>12762.01</v>
+        <v>12843.53</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>12762.01</v>
+        <v>12843.53</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>12762.01</v>
+        <v>12843.53</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>12843.53</v>
+        <v>21076.98</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>13948.4575</v>
+        <v>13651.49083333334</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>680.97</v>
+        <v>467.46</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>5141.67</v>
+        <v>10239.23</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>7810.51</v>
+        <v>11124.92</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>12440.16</v>
+        <v>12861.9</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>12523.67</v>
+        <v>19428.93</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>12763.21</v>
+        <v>19428.93</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>12763.21</v>
+        <v>19428.93</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>12763.21</v>
+        <v>19428.93</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>12763.21</v>
+        <v>19428.93</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>12763.21</v>
+        <v>21059.5</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>12786.84</v>
+        <v>21059.5</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>12786.84</v>
+        <v>21059.5</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>12786.84</v>
+        <v>21059.5</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>12786.84</v>
+        <v>21076.98</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>12786.84</v>
+        <v>21076.98</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>12786.84</v>
+        <v>21076.98</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>12786.84</v>
+        <v>21076.98</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>12843.53</v>
+        <v>21076.98</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>12843.53</v>
+        <v>21076.98</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>12843.53</v>
+        <v>21076.98</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>12843.53</v>
+        <v>21076.98</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>12843.53</v>
+        <v>21076.98</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>12843.53</v>
+        <v>21076.98</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>21076.98</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>13651.49083333334</v>
+        <v>12926.25833333333</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8866,70 +8866,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>467.46</v>
+        <v>746.26</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>10239.23</v>
+        <v>4325.09</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>11124.92</v>
+        <v>5076.23</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>12861.9</v>
+        <v>5708.450000000001</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>19428.93</v>
+        <v>6317.030000000001</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>19428.93</v>
+        <v>6317.030000000001</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>19428.93</v>
+        <v>6381.700000000001</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>19428.93</v>
+        <v>6381.700000000001</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>19428.93</v>
+        <v>6436.420000000001</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>21059.5</v>
+        <v>6460.280000000001</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>21059.5</v>
+        <v>6460.280000000001</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>21059.5</v>
+        <v>6460.280000000001</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>21059.5</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>21076.98</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>21076.98</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>21076.98</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>21076.98</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>21076.98</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>21076.98</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>21076.98</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>21076.98</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>21076.98</v>
+        <v>6482.110000000001</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>6482.110000000001</v>
+        <v>11326.02</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>12926.25833333333</v>
+        <v>12565.32333333333</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8993,67 +8993,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>746.26</v>
+        <v>239.2</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>4325.09</v>
+        <v>5923.67</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>5076.23</v>
+        <v>7772.14</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>5708.450000000001</v>
+        <v>7922.88</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>6317.030000000001</v>
+        <v>9522.880000000001</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>6317.030000000001</v>
+        <v>11137.88</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>6381.700000000001</v>
+        <v>11137.88</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>6381.700000000001</v>
+        <v>11232.48</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>6436.420000000001</v>
+        <v>11310.89</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>6460.280000000001</v>
+        <v>11319.47</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>6460.280000000001</v>
+        <v>11319.47</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>6460.280000000001</v>
+        <v>11326.02</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>6482.110000000001</v>
+        <v>11326.02</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>6482.110000000001</v>
+        <v>11326.02</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>6482.110000000001</v>
+        <v>11326.02</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>6482.110000000001</v>
+        <v>11326.02</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>6482.110000000001</v>
+        <v>11326.02</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>6482.110000000001</v>
+        <v>11326.02</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>6482.110000000001</v>
+        <v>11326.02</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>6482.110000000001</v>
+        <v>11326.02</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>6482.110000000001</v>
+        <v>11326.02</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>11326.02</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>12565.32333333333</v>
+        <v>12121</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9120,64 +9120,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>239.2</v>
+        <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>5923.67</v>
+        <v>3411.01</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>7772.14</v>
+        <v>4361.45</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>7922.88</v>
+        <v>4361.45</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>9522.880000000001</v>
+        <v>4361.45</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>11137.88</v>
+        <v>4463.429999999999</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>11137.88</v>
+        <v>4658.039999999999</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>11232.48</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>11310.89</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>11319.47</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>11319.47</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>11326.02</v>
+        <v>6989.739999999999</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>11326.02</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>11326.02</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>11326.02</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>11326.02</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>11326.02</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>11326.02</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>11326.02</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>11326.02</v>
+        <v>7087.529999999999</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>7087.529999999999</v>
+        <v>19876.4</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>12121</v>
+        <v>11200.785</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9247,61 +9247,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v/>
+        <v>816.14</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>3411.01</v>
+        <v>18529.29</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>4361.45</v>
+        <v>18538.02</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>4361.45</v>
+        <v>18538.02</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>4361.45</v>
+        <v>18538.02</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>4463.429999999999</v>
+        <v>19390.94</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>4658.039999999999</v>
+        <v>19743.74</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>6989.739999999999</v>
+        <v>19761.97</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>6989.739999999999</v>
+        <v>19761.97</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>6989.739999999999</v>
+        <v>19761.97</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>6989.739999999999</v>
+        <v>19761.97</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>6989.739999999999</v>
+        <v>19761.97</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>7087.529999999999</v>
+        <v>19876.4</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>7087.529999999999</v>
+        <v>19876.4</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>7087.529999999999</v>
+        <v>19876.4</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>7087.529999999999</v>
+        <v>19876.4</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>7087.529999999999</v>
+        <v>19876.4</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>7087.529999999999</v>
+        <v>19876.4</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>7087.529999999999</v>
+        <v>19876.4</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>19876.39999999999</v>
+        <v>20682.64</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9374,58 +9374,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>816.14</v>
+        <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>18529.29</v>
+        <v>14065</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>18538.02</v>
+        <v>14065</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>18538.02</v>
+        <v>14065</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>18538.02</v>
+        <v>20159.73</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>19390.94</v>
+        <v>20650.65</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>19743.73999999999</v>
+        <v>20650.65</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>19761.96999999999</v>
+        <v>21201.8</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>19761.96999999999</v>
+        <v>20650.65</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>19761.96999999999</v>
+        <v>20650.65</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>19761.96999999999</v>
+        <v>20650.65</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>19761.96999999999</v>
+        <v>20650.65</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>19876.39999999999</v>
+        <v>20682.64</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>19876.39999999999</v>
+        <v>20682.64</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>19876.39999999999</v>
+        <v>20682.64</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>19876.39999999999</v>
+        <v>20682.64</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>19876.39999999999</v>
+        <v>20682.64</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>19876.39999999999</v>
+        <v>20682.64</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>20682.64</v>
+        <v>18885.32</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>11200.785</v>
+        <v>11021.96333333333</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9504,52 +9504,52 @@
         <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>14065</v>
+        <v/>
       </c>
       <c r="U15" s="22" t="n">
-        <v>14065</v>
+        <v>15064.66</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>14065</v>
+        <v>18031.81</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>20159.73</v>
+        <v>18734.52</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>20650.65</v>
+        <v>18745.31</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>20650.65</v>
+        <v>18850.79</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>21201.8</v>
+        <v>18882.62</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>20650.65</v>
+        <v>18882.62</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>20650.65</v>
+        <v>18882.62</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>20650.65</v>
+        <v>18885.32</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>20650.65</v>
+        <v>18885.32</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>20682.64</v>
+        <v>18885.32</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>20682.64</v>
+        <v>18885.32</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>20682.64</v>
+        <v>18885.32</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>20682.64</v>
+        <v>18885.32</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>20682.64</v>
+        <v>18885.32</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>18885.32</v>
+        <v>20295.84</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>11021.96333333333</v>
+        <v>10834.99333333333</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9634,46 +9634,46 @@
         <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v>15064.66</v>
+        <v>17660.55</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>18031.81</v>
+        <v>18378.7</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>18734.52</v>
+        <v>20236.75</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>18745.31</v>
+        <v>20236.75</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>18850.79</v>
+        <v>20260.38</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>18882.62</v>
+        <v>20260.38</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>18882.62</v>
+        <v>20260.38</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>18882.62</v>
+        <v>20261.62</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>18885.32</v>
+        <v>20295.84</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>18885.32</v>
+        <v>20295.84</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>18885.32</v>
+        <v>20295.84</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>18885.32</v>
+        <v>20295.84</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>18885.32</v>
+        <v>20295.84</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>18885.32</v>
+        <v>20295.84</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>20295.84</v>
+        <v>22478.19</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>10834.99333333333</v>
+        <v>10854.00333333333</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9758,46 +9758,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v/>
+        <v>3063.39</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>17660.55</v>
+        <v>19861.86</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>18378.7</v>
+        <v>20642.59</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>20236.75</v>
+        <v>20722.01</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>20236.75</v>
+        <v>20722.01</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>20260.38</v>
+        <v>20722.01</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>20260.38</v>
+        <v>20722.01</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>20260.38</v>
+        <v>22361.16</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>20261.62</v>
+        <v>22361.16</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>20295.84</v>
+        <v>22361.16</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>20295.84</v>
+        <v>22478.19</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>20295.84</v>
+        <v>22478.19</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>20295.84</v>
+        <v>22478.19</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>20295.84</v>
+        <v>22478.19</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>22478.19</v>
+        <v>20264.82</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9882,46 +9882,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v/>
+        <v>457.06</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>3063.39</v>
+        <v>3965.31</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>19861.86</v>
+        <v>18289.4</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>20642.59</v>
+        <v>18638.12</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>20722.00999999999</v>
+        <v>18654.65</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>20722.00999999999</v>
+        <v>18583.68</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>20722.00999999999</v>
+        <v>18602.67</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>20722.00999999999</v>
+        <v>20264.82</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>22361.16</v>
+        <v>20264.82</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>22361.16</v>
+        <v>20264.82</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>22361.16</v>
+        <v>20264.82</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>22478.19</v>
+        <v>20264.82</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>22478.19</v>
+        <v>20264.82</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>22478.19</v>
+        <v>20264.82</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>20264.82</v>
+        <v>2594.53</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>10854.00333333333</v>
+        <v>9756.408333333333</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10012,43 +10012,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>457.06</v>
+        <v>139.78</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>3965.31</v>
+        <v>1844.54</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>18289.4</v>
+        <v>2322.21</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>18638.12</v>
+        <v>2511.83</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>18654.65</v>
+        <v>2524.56</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>18583.68</v>
+        <v>2546.99</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>18602.67</v>
+        <v>2588.84</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>20264.82</v>
+        <v>2594.53</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>20264.82</v>
+        <v>2594.53</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>20264.82</v>
+        <v>2594.53</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>20264.82</v>
+        <v>2594.53</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>20264.82</v>
+        <v>2594.53</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>20264.82</v>
+        <v>2594.53</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>2594.53</v>
+        <v>4403.32</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>9756.408333333333</v>
+        <v>9756.408333333335</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10148,40 +10148,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>139.78</v>
+        <v>137.69</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>1844.54</v>
+        <v>1675.66</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>2322.21</v>
+        <v>3609.14</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>2511.83</v>
+        <v>4050.95</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>2524.56</v>
+        <v>4122.67</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>2546.99</v>
+        <v>4396.86</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>2588.84</v>
+        <v>4403.32</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>2594.53</v>
+        <v>4403.32</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>2594.53</v>
+        <v>4403.32</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>2594.53</v>
+        <v>4403.32</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>2594.53</v>
+        <v>4403.32</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>2594.53</v>
+        <v>4403.32</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>4403.32</v>
+        <v>7984.470000000001</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>9756.408333333333</v>
+        <v>9423.440833333332</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10284,37 +10284,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>137.69</v>
+        <v>1237.66</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1675.66</v>
+        <v>2884.87</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>3609.14</v>
+        <v>3250.21</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>4050.95</v>
+        <v>3547.76</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>4122.67</v>
+        <v>3898.58</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>4396.86</v>
+        <v>7369.380000000001</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>4403.32</v>
+        <v>7413.700000000001</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>4403.32</v>
+        <v>7984.470000000001</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>4403.32</v>
+        <v>7984.470000000001</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>4403.32</v>
+        <v>7984.470000000001</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>4403.32</v>
+        <v>7984.470000000001</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>7984.470000000001</v>
+        <v>8106.179999999999</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>9423.440833333332</v>
+        <v>9324.3575</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10420,34 +10420,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>1237.66</v>
+        <v>591.76</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>2884.87</v>
+        <v>2615.14</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>3250.21</v>
+        <v>3149.67</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>3547.76</v>
+        <v>3539.07</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>3898.58</v>
+        <v>3960.58</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>7369.380000000001</v>
+        <v>5634.95</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>7413.700000000001</v>
+        <v>5641.9</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>7984.470000000001</v>
+        <v>8089.9</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>7984.470000000001</v>
+        <v>8106.179999999999</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>7984.470000000001</v>
+        <v>8106.179999999999</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>8106.179999999999</v>
+        <v>2911.49</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>9324.3575</v>
+        <v>9139.9825</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10556,31 +10556,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>591.76</v>
+        <v>55.04</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>2615.14</v>
+        <v>653.9599999999999</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>3149.67</v>
+        <v>2484.83</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>3539.07</v>
+        <v>2876.65</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>3960.58</v>
+        <v>2911.49</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>5634.95</v>
+        <v>2911.49</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>5641.9</v>
+        <v>2911.49</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>8089.9</v>
+        <v>2911.49</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>8106.179999999999</v>
+        <v>2911.49</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>2911.49</v>
+        <v>5013.120000000001</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10694,28 +10694,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>55.04</v>
+        <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>653.9599999999999</v>
+        <v>2824.94</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>2484.83</v>
+        <v>4039.1</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>2876.65</v>
+        <v>4392.73</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>2911.49</v>
+        <v>4473.120000000001</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>2911.49</v>
+        <v>4473.120000000001</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>2911.49</v>
+        <v>5013.120000000001</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>2911.49</v>
+        <v>5013.120000000001</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>5013.120000000001</v>
+        <v>23057.23999999999</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>9139.9825</v>
+        <v>8407.3225</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10832,25 +10832,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v/>
+        <v>301.07</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>2824.94</v>
+        <v>2709.37</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>4039.1</v>
+        <v>19449.29</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>4392.73</v>
+        <v>20159.66</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>4473.120000000001</v>
+        <v>20888.89</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>4473.120000000001</v>
+        <v>23048.89</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>5013.120000000001</v>
+        <v>23057.23999999999</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>23048.89</v>
+        <v>20626.58</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>8407.3225</v>
+        <v>7827.2975</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10970,22 +10970,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>301.07</v>
+        <v>237.34</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>2709.37</v>
+        <v>18234.15</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>19449.29</v>
+        <v>18601.51</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>20159.66</v>
+        <v>20596.44</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>20888.89</v>
+        <v>20612.54</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>23048.89</v>
+        <v>20626.58</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>20612.54</v>
+        <v>24910.05</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>7827.2975</v>
+        <v>7430.590833333335</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11108,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>237.34</v>
+        <v>478.43</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>18234.15</v>
+        <v>22030.02</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>18601.51</v>
+        <v>22586.75</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>20596.44</v>
+        <v>24354.19</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>20612.54</v>
+        <v>24910.05</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>24354.19</v>
+        <v>18484.78</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>7430.590833333333</v>
+        <v>7319.710833333334</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11246,16 +11246,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>478.43</v>
+        <v>338.5</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>22030.02</v>
+        <v>17834.34</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>22586.75</v>
+        <v>18444.82</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>24354.19</v>
+        <v>18484.78</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>18444.82</v>
+        <v>18318.77</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11353,7 +11353,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>7319.710833333334</v>
+        <v>7354.620833333333</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>250</v>
@@ -11384,13 +11384,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>338.5</v>
+        <v>446.27</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>17834.34</v>
+        <v>18111</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>18444.82</v>
+        <v>18318.77</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11464,7 +11464,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>18111</v>
+        <v>15872.14</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11491,7 +11491,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>7354.620833333333</v>
+        <v>6518.805</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>250</v>
@@ -11522,10 +11522,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>446.27</v>
+        <v>121.62</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>18111</v>
+        <v>15872.14</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11602,7 +11602,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>121.62</v>
+        <v>328.45</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11629,7 +11629,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>6518.805</v>
+        <v>6567.954999999999</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>250</v>
@@ -11660,7 +11660,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>121.62</v>
+        <v>328.45</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
